--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Category.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Category.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8844"/>
+    <workbookView windowWidth="22368" windowHeight="9444"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1187,8 +1187,8 @@
   <sheetPr/>
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="1:3">
       <c r="A11" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" ref="B10:B41" si="0">INT(A11/10)</f>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="12" s="1" customFormat="1" spans="1:3">
       <c r="A12" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="1:3">
       <c r="A13" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="14" s="1" customFormat="1" spans="1:3">
       <c r="A14" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="15" s="1" customFormat="1" spans="1:3">
       <c r="A15" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="17" s="1" customFormat="1" spans="1:3">
       <c r="A17" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
@@ -1372,7 +1372,7 @@
     </row>
     <row r="18" s="1" customFormat="1" spans="1:3">
       <c r="A18" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="19" s="1" customFormat="1" spans="1:3">
       <c r="A19" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="20" s="1" customFormat="1" spans="1:3">
       <c r="A20" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="21" s="1" customFormat="1" spans="1:3">
       <c r="A21" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="0"/>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="23" s="1" customFormat="1" spans="1:3">
       <c r="A23" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="0"/>
@@ -1432,7 +1432,7 @@
     </row>
     <row r="24" s="1" customFormat="1" spans="1:3">
       <c r="A24" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="0"/>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="25" s="1" customFormat="1" spans="1:3">
       <c r="A25" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="0"/>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="26" s="1" customFormat="1" spans="1:3">
       <c r="A26" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="0"/>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="27" s="1" customFormat="1" spans="1:3">
       <c r="A27" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="0"/>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="28" s="1" customFormat="1" spans="1:3">
       <c r="A28" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="0"/>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="30" s="1" customFormat="1" spans="1:3">
       <c r="A30" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="0"/>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="31" s="1" customFormat="1" spans="1:3">
       <c r="A31" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="0"/>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="32" s="1" customFormat="1" spans="1:3">
       <c r="A32" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="0"/>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="33" s="1" customFormat="1" spans="1:3">
       <c r="A33" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="0"/>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="34" s="1" customFormat="1" spans="1:3">
       <c r="A34" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="0"/>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="36" s="1" customFormat="1" spans="1:3">
       <c r="A36" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" si="0"/>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="37" s="1" customFormat="1" spans="1:3">
       <c r="A37" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="0"/>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="38" s="1" customFormat="1" spans="1:3">
       <c r="A38" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="0"/>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="39" s="1" customFormat="1" spans="1:3">
       <c r="A39" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="0"/>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="40" s="1" customFormat="1" spans="1:3">
       <c r="A40" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="0"/>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="41" s="1" customFormat="1" spans="1:3">
       <c r="A41" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="0"/>
@@ -1624,10 +1624,10 @@
     </row>
     <row r="43" s="1" customFormat="1" spans="1:3">
       <c r="A43" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B43" s="1">
-        <f t="shared" ref="B42:B73" si="1">INT(A43/10)</f>
+        <f t="shared" ref="B42:B74" si="1">INT(A43/10)</f>
         <v>7</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1636,7 +1636,7 @@
     </row>
     <row r="44" s="1" customFormat="1" spans="1:3">
       <c r="A44" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="1"/>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="45" s="1" customFormat="1" spans="1:3">
       <c r="A45" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="1"/>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="46" s="1" customFormat="1" spans="1:3">
       <c r="A46" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="1"/>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="47" s="1" customFormat="1" spans="1:3">
       <c r="A47" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="1"/>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="48" s="1" customFormat="1" spans="1:3">
       <c r="A48" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="1"/>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="50" s="1" customFormat="1" spans="1:3">
       <c r="A50" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="1"/>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="51" s="1" customFormat="1" spans="1:3">
       <c r="A51" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="1"/>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="52" s="1" customFormat="1" spans="1:3">
       <c r="A52" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="1"/>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="53" s="1" customFormat="1" spans="1:3">
       <c r="A53" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="1"/>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="54" s="1" customFormat="1" spans="1:3">
       <c r="A54" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="1"/>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="55" s="1" customFormat="1" spans="1:3">
       <c r="A55" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="1"/>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="57" s="1" customFormat="1" spans="1:3">
       <c r="A57" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" si="1"/>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="58" s="1" customFormat="1" spans="1:3">
       <c r="A58" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="1"/>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="59" s="1" customFormat="1" spans="1:3">
       <c r="A59" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" si="1"/>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="60" s="1" customFormat="1" spans="1:3">
       <c r="A60" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="1"/>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="61" s="1" customFormat="1" spans="1:3">
       <c r="A61" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="1"/>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="62" s="1" customFormat="1" spans="1:3">
       <c r="A62" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="1"/>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="64" s="1" customFormat="1" spans="1:3">
       <c r="A64" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="65" s="1" customFormat="1" spans="1:3">
       <c r="A65" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="1"/>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="66" s="1" customFormat="1" spans="1:3">
       <c r="A66" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="1"/>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="67" s="1" customFormat="1" spans="1:3">
       <c r="A67" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="1"/>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="68" s="1" customFormat="1" spans="1:3">
       <c r="A68" s="1">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" si="1"/>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="70" s="1" customFormat="1" spans="1:3">
       <c r="A70" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" si="1"/>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="71" s="1" customFormat="1" spans="1:3">
       <c r="A71" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="1"/>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="72" s="1" customFormat="1" spans="1:3">
       <c r="A72" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="1"/>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="73" s="1" customFormat="1" spans="1:3">
       <c r="A73" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="1"/>
@@ -1948,10 +1948,10 @@
     </row>
     <row r="74" s="1" customFormat="1" spans="1:3">
       <c r="A74" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B74" s="1">
-        <f>INT(A74/10)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -1960,7 +1960,7 @@
     </row>
     <row r="76" s="1" customFormat="1" spans="1:3">
       <c r="A76" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B76" s="1">
         <f>INT(A76/10)</f>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="77" s="1" customFormat="1" spans="1:3">
       <c r="A77" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B77" s="1">
         <f>INT(A77/10)</f>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="78" s="1" customFormat="1" spans="1:3">
       <c r="A78" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B78" s="1">
         <f>INT(A78/10)</f>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="79" s="1" customFormat="1" spans="1:3">
       <c r="A79" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B79" s="1">
         <f>INT(A79/10)</f>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="80" s="1" customFormat="1" spans="1:3">
       <c r="A80" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B80" s="1">
         <f>INT(A80/10)</f>

--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Category.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Category.xlsx
@@ -1187,8 +1187,8 @@
   <sheetPr/>
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:A80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6" outlineLevelCol="2"/>
